--- a/biology/Botanique/Pleurothallis/Pleurothallis.xlsx
+++ b/biology/Botanique/Pleurothallis/Pleurothallis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pleurothallis est le plus important genre d'orchidées. Il compte plus de 1 200 espèces voire plus de 2 000 espèces[réf. nécessaire].
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Orchidées généralement épiphytes mais aussi lithophytes et parfois terrestres.
-Dimension : Genre extrêmement diversifié entre des espèces miniatures et d'autres atteignant presque un mètre de hauteur[2].</t>
+Dimension : Genre extrêmement diversifié entre des espèces miniatures et d'autres atteignant presque un mètre de hauteur.</t>
         </is>
       </c>
     </row>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Amérique tropicale.
 </t>
@@ -573,12 +589,12 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Voir la Liste des espèces du genre Pleurothallis.
-Noms en synonymie
-Pleurothallis elegans (Kunth) Lindl., un synonyme de Stelis roseopunctata
-Pleurothallis roseopunctata Lindl., un synonyme de Stelis roseopunctata</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voir la Liste des espèces du genre Pleurothallis.
+</t>
         </is>
       </c>
     </row>
@@ -603,10 +619,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms en synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pleurothallis elegans (Kunth) Lindl., un synonyme de Stelis roseopunctata
+Pleurothallis roseopunctata Lindl., un synonyme de Stelis roseopunctata</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pleurothallis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pleurothallis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Pleurothallis prolifera .
@@ -617,31 +672,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Pleurothallis</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pleurothallis</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Photos</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Pleurothallis anthrax ou Ancipitia anthrax.
